--- a/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
+++ b/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\GitHub\COMTRAC\Auswertung_Fokusgruppen_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86718F3B-C5C6-48BA-95C0-E780C78E49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614D1A47-940E-43DC-9134-2C05F4895B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Fokusgruppen" sheetId="1" r:id="rId1"/>
+    <sheet name="Anforderungen Symptomtagebuch" sheetId="2" r:id="rId2"/>
+    <sheet name="Anforderungen Medikation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t xml:space="preserve">Design </t>
   </si>
@@ -50,9 +52,6 @@
     <t>übersichtlich</t>
   </si>
   <si>
-    <t>Zusätzliche Funktionen</t>
-  </si>
-  <si>
     <t>Integration von Vitalparametern / Gesundheitszustand</t>
   </si>
   <si>
@@ -74,9 +73,6 @@
     <t>Gute Aufteilung</t>
   </si>
   <si>
-    <t xml:space="preserve">Bestehende Funktionen verbessern </t>
-  </si>
-  <si>
     <t>Rückmeldung bei Symptomeintrag</t>
   </si>
   <si>
@@ -108,12 +104,6 @@
   </si>
   <si>
     <t>Design</t>
-  </si>
-  <si>
-    <t>Zustätzliche Funktionen</t>
-  </si>
-  <si>
-    <t>Bestehende Funktionen verbessern</t>
   </si>
   <si>
     <t>Medikation</t>
@@ -278,16 +268,13 @@
     <t>Nutzen</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusätzliche Funktionen: </t>
-  </si>
-  <si>
-    <t>Noch nicht im Prototyp vorhanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bestehende Funktionen verbessern: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablauf der Funktion verändert sich oder es wird was ergänzt oder gelöscht </t>
+    <t>Anpassung der Funktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anforderungen </t>
+  </si>
+  <si>
+    <t>Late Presenter</t>
   </si>
 </sst>
 </file>
@@ -324,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +330,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,9 +360,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
-  <dimension ref="A2:H87"/>
+  <dimension ref="A2:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:C74"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +705,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -720,15 +715,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -746,442 +741,583 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="E31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>20</v>
+      <c r="C44" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
+      <c r="A46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>41</v>
+      <c r="B49" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>35</v>
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>48</v>
+      <c r="A54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>2</v>
+      <c r="A57" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>55</v>
+      <c r="C71" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
+      <c r="A72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>65</v>
+      <c r="A73" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>52</v>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>53</v>
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>54</v>
+      <c r="B78" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>58</v>
+      <c r="B79" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A74:C74"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF07290-D813-4AE3-B209-F2CE025EB4A0}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="C11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27D6BF-0EA5-441B-BBDF-89336BEB1FDE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="50.28515625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
+++ b/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\GitHub\COMTRAC\Auswertung_Fokusgruppen_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyhainz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614D1A47-940E-43DC-9134-2C05F4895B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B121AE20-0BC1-EB4D-9FC9-269D3B81777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Fokusgruppen" sheetId="1" r:id="rId1"/>
     <sheet name="Anforderungen Symptomtagebuch" sheetId="2" r:id="rId2"/>
     <sheet name="Anforderungen Medikation" sheetId="3" r:id="rId3"/>
+    <sheet name="Anforderungen Chat" sheetId="4" r:id="rId4"/>
+    <sheet name="Anforderungen Videotelefonie" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t xml:space="preserve">Design </t>
   </si>
@@ -275,6 +277,75 @@
   </si>
   <si>
     <t>Late Presenter</t>
+  </si>
+  <si>
+    <t>K1 Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2 Anfpassung der Funktionen </t>
+  </si>
+  <si>
+    <t>K3 Nutzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4 positive Bewertung </t>
+  </si>
+  <si>
+    <t>Option „Kommunikation mit Behandler“ oder „anonymer Chat“ bereitstellen</t>
+  </si>
+  <si>
+    <t>Rezeptbestellung: Freifeldtext für Präparat und Dosis</t>
+  </si>
+  <si>
+    <t>Umbenennung in „Organisation“</t>
+  </si>
+  <si>
+    <t>Bearbeitungsstatus anzeigen bei „Fragen klären“</t>
+  </si>
+  <si>
+    <t>Screening, um Informationen zu erfassen und zu bewerten</t>
+  </si>
+  <si>
+    <t>Termine/Rezepte auslagern</t>
+  </si>
+  <si>
+    <t>Nachricht für Medikamenten Abholung</t>
+  </si>
+  <si>
+    <t>Passend</t>
+  </si>
+  <si>
+    <t>Videotelefonie</t>
+  </si>
+  <si>
+    <t>Wichtig</t>
+  </si>
+  <si>
+    <t>Sinnvoll</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zeitangabe Warteraum</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -343,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,18 +425,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,8 +435,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,25 +773,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
-  <dimension ref="A2:C84"/>
+  <dimension ref="A2:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="49.85546875" customWidth="1"/>
+    <col min="1" max="3" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -721,14 +802,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -736,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -744,88 +825,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -836,14 +917,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -851,54 +932,54 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -909,39 +990,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -949,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -957,53 +1038,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1014,19 +1095,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1034,97 +1115,283 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C111" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A114:C114"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A72:C72"/>
@@ -1147,85 +1414,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF07290-D813-4AE3-B209-F2CE025EB4A0}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="C11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1239,38 +1503,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27D6BF-0EA5-441B-BBDF-89336BEB1FDE}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="50.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1286,30 +1550,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1320,4 +1584,74 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9865B056-DE43-0A4A-9077-F5699E360F0F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D163ED68-1EAC-B54C-B068-C8917BCEA4D6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
+++ b/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyhainz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\GitHub\COMTRAC\Auswertung_Fokusgruppen_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B121AE20-0BC1-EB4D-9FC9-269D3B81777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE690B8-9932-41C6-B518-B044F316648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Fokusgruppen" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,15 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -459,6 +456,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -773,25 +780,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
-  <dimension ref="A2:F119"/>
+  <dimension ref="A2:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="49.83203125" customWidth="1"/>
+    <col min="1" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -802,14 +809,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -817,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -825,88 +832,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -917,495 +924,491 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
       <c r="B40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B94" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B96" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B108" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B109" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="C111" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="11" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1420,24 +1423,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1448,47 +1451,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
   </sheetData>
@@ -1507,23 +1510,23 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1558,22 +1561,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1594,15 +1597,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1629,15 +1632,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>

--- a/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
+++ b/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\GitHub\COMTRAC\Auswertung_Fokusgruppen_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE690B8-9932-41C6-B518-B044F316648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E44F09-BBB1-4F07-88E3-0C0C62250AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t xml:space="preserve">Design </t>
   </si>
@@ -289,30 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">K4 positive Bewertung </t>
-  </si>
-  <si>
-    <t>Option „Kommunikation mit Behandler“ oder „anonymer Chat“ bereitstellen</t>
-  </si>
-  <si>
-    <t>Rezeptbestellung: Freifeldtext für Präparat und Dosis</t>
-  </si>
-  <si>
-    <t>Umbenennung in „Organisation“</t>
-  </si>
-  <si>
-    <t>Bearbeitungsstatus anzeigen bei „Fragen klären“</t>
-  </si>
-  <si>
-    <t>Screening, um Informationen zu erfassen und zu bewerten</t>
-  </si>
-  <si>
-    <t>Termine/Rezepte auslagern</t>
-  </si>
-  <si>
-    <t>Nachricht für Medikamenten Abholung</t>
-  </si>
-  <si>
-    <t>Passend</t>
   </si>
   <si>
     <t>Videotelefonie</t>
@@ -420,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,28 +420,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -780,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
-  <dimension ref="A2:F116"/>
+  <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,11 +759,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -810,11 +777,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -858,43 +825,43 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -907,11 +874,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -925,62 +892,62 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1004,11 +971,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1052,11 +1019,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -1064,11 +1031,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1081,11 +1048,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1099,11 +1066,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1139,11 +1106,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1151,11 +1118,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1219,12 +1186,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -1237,158 +1204,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+    </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="A88" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>2</v>
+      <c r="A89" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="11" t="s">
+      <c r="B90" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="16">
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A69:C69"/>
@@ -1403,12 +1244,6 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1435,10 +1270,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1521,10 +1356,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1600,10 +1435,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1635,10 +1470,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">

--- a/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
+++ b/Auswertung_Fokusgruppen_01/Zusammenstellung der Kategorien.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\Documents\GitHub\COMTRAC\Auswertung_Fokusgruppen_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyhainz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E44F09-BBB1-4F07-88E3-0C0C62250AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727392A4-CD3C-AB40-90F4-A88F86EBF02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{144474E4-DCCB-4C05-9FD5-E6CC91E1F337}"/>
   </bookViews>
   <sheets>
-    <sheet name="Auswertung Fokusgruppen" sheetId="1" r:id="rId1"/>
-    <sheet name="Anforderungen Symptomtagebuch" sheetId="2" r:id="rId2"/>
-    <sheet name="Anforderungen Medikation" sheetId="3" r:id="rId3"/>
-    <sheet name="Anforderungen Chat" sheetId="4" r:id="rId4"/>
-    <sheet name="Anforderungen Videotelefonie" sheetId="5" r:id="rId5"/>
+    <sheet name="Auswertung Fokusgruppen - Gegen" sheetId="6" r:id="rId1"/>
+    <sheet name="Auswertung Fokusgruppen" sheetId="1" r:id="rId2"/>
+    <sheet name="Anforderungen Symptomtagebuch" sheetId="2" r:id="rId3"/>
+    <sheet name="Anforderungen Medikation" sheetId="3" r:id="rId4"/>
+    <sheet name="Anforderungen Chat" sheetId="4" r:id="rId5"/>
+    <sheet name="Anforderungen Videotelefonie" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t xml:space="preserve">Design </t>
   </si>
@@ -298,6 +299,99 @@
   </si>
   <si>
     <t>Sinnvoll</t>
+  </si>
+  <si>
+    <t>Abschließende Diskussion</t>
+  </si>
+  <si>
+    <t>Positive Bewertung</t>
+  </si>
+  <si>
+    <t>Chatfunktion aufteilen (Kontakt zum Arzt und Termine/Rezepte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termine einfach ändern </t>
+  </si>
+  <si>
+    <t>Datenbank mit Wechselwirkungen</t>
+  </si>
+  <si>
+    <t>Symptomtagebuch für Anfangsphase hilfreich</t>
+  </si>
+  <si>
+    <t>Alle Funktionalitäten relevant</t>
+  </si>
+  <si>
+    <t>App ist in Ordnung</t>
+  </si>
+  <si>
+    <t>Zeitangabe Warteraum</t>
+  </si>
+  <si>
+    <t>Termin vereinbaren</t>
+  </si>
+  <si>
+    <t>Rückfragen stellen</t>
+  </si>
+  <si>
+    <t>Benachrichtigung bei kritischen Werten</t>
+  </si>
+  <si>
+    <t>Ampelsystem bei Befunde</t>
+  </si>
+  <si>
+    <t>Befunde hochladen</t>
+  </si>
+  <si>
+    <t>Videotelefonie praktisch (bei „Standardterminen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super einfach </t>
+  </si>
+  <si>
+    <t>Postitive Bewertung</t>
+  </si>
+  <si>
+    <t>Passend</t>
+  </si>
+  <si>
+    <t>Nachverfolgung des Gesundheitszustands</t>
+  </si>
+  <si>
+    <t>Freitext Eingabe von Symptomen</t>
+  </si>
+  <si>
+    <t>Alle Funktionen vorhanden und ist wertvoll</t>
+  </si>
+  <si>
+    <t>Gesamtübersicht bei Medikation und Symptomen</t>
+  </si>
+  <si>
+    <t>Abfrage des Gesundheitszustands</t>
+  </si>
+  <si>
+    <t>Zusätzliche Verlinkung zu einer Informationsseite für HIV</t>
+  </si>
+  <si>
+    <t>Aktuelle keinen Nutzen evtl. später</t>
+  </si>
+  <si>
+    <t>Aktuell: Notwendigkeit für App-Nutzung</t>
+  </si>
+  <si>
+    <t>Krankschreibung beantragen</t>
+  </si>
+  <si>
+    <t>Digitales Rezept</t>
+  </si>
+  <si>
+    <t>Laborwerte per Haken anfordern</t>
+  </si>
+  <si>
+    <t>Laborwerte hinzufügen können</t>
+  </si>
+  <si>
+    <t>Erwartungen teilweise erfüllt</t>
   </si>
   <si>
     <r>
@@ -320,7 +414,270 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Zeitangabe Warteraum</t>
+      <t>Passend</t>
+    </r>
+  </si>
+  <si>
+    <t>Ausreichend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nicht überfordernd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskrete Erinnerungsfunktion</t>
+    </r>
+  </si>
+  <si>
+    <t>Bestätigung für die Medikamenteneinnahme für Arzt interessant</t>
+  </si>
+  <si>
+    <t>Erinnerungsfunktion für Anfangsphase gut</t>
+  </si>
+  <si>
+    <t>Funktion Medikation positiv</t>
+  </si>
+  <si>
+    <t>Nachricht für Medikamenten Abholung</t>
+  </si>
+  <si>
+    <t>Symptomtagebuch sinnvoll in Anfangsphase</t>
+  </si>
+  <si>
+    <t>Datenintegrität</t>
+  </si>
+  <si>
+    <t>Probleme beim nachträglichen Ändern von Symptomen wegen Datenverfälschung</t>
+  </si>
+  <si>
+    <t>einfach</t>
+  </si>
+  <si>
+    <t>Medikationsplan von Arzt eintragen, Patient kann Änderungen vornehmen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diskrete Erinnerung</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Erinnerungsfunktion gut  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klar</t>
+    </r>
+  </si>
+  <si>
+    <t>Umbenennung in „Organisation“</t>
+  </si>
+  <si>
+    <t>Ampelsystem für Rezeptbestellung</t>
+  </si>
+  <si>
+    <t>Bearbeitungsstatus anzeigen bei „Fragen klären“</t>
+  </si>
+  <si>
+    <t>Screening, um Informationen zu erfassen und zu bewerten</t>
+  </si>
+  <si>
+    <t>Termine/Rezepte auslagern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration von Vitalparametern/Gesundheitszustand  </t>
+  </si>
+  <si>
+    <t>Vorerkrankungen beeinflussen das Datenbild</t>
+  </si>
+  <si>
+    <t>Kontraindikation für zeitliche Einschränkungen bei Medikamenteneinnahme</t>
+  </si>
+  <si>
+    <t>Empfehlungen für Medikamenteneinnahme</t>
+  </si>
+  <si>
+    <t>Medikamenten-Eingabe über zwei Freitextfelder (Medikament und Dosis)</t>
+  </si>
+  <si>
+    <t>Erinnerungsfunktion für die Anfangsphase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entscheidungsfreiheit bei Nutzung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aktivieren und deaktivieren der </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Erinnerungsfunktion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ist gut</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Einfach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Option „Kommunikation mit Behandler“ oder „anonymer Chat“ bereitstellen</t>
+    </r>
+  </si>
+  <si>
+    <t>Rezeptbestellung: Freifeldtext für Präparat und Dosis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sinnvoll</t>
     </r>
   </si>
 </sst>
@@ -328,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +712,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -384,9 +749,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -396,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,18 +794,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,26 +1174,1919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
-  <dimension ref="A2:F90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F223CF-2316-9748-9B9D-1A61815016EC}">
+  <dimension ref="A2:O290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="49.85546875" customWidth="1"/>
+    <col min="1" max="3" width="23.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="23" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="23" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="23" customWidth="1"/>
+    <col min="11" max="12" width="23.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="26" customWidth="1"/>
+    <col min="14" max="15" width="23.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="M3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="E24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="H25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="O25" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="H26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="O26" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="J37" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="N38" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="L44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="O45" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="O46" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="O47" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="O48" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="O49" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="N50" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="N51" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="16"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="16"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="16"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="16"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="16"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="16"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="16"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="16"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="16"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="16"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="16"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="16"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="16"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="16"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="16"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="18"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="18"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="18"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="18"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="18"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="16"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="16"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="16"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="16"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="16"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="16"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="16"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="16"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="16"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="16"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="16"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="16"/>
+      <c r="B234" s="16"/>
+      <c r="C234" s="16"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="16"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="16"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="16"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="16"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="16"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="16"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="16"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="16"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="16"/>
+      <c r="B247" s="16"/>
+      <c r="C247" s="16"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="16"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="16"/>
+      <c r="B250" s="16"/>
+      <c r="C250" s="16"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="16"/>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="16"/>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="16"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="16"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="16"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="16"/>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="16"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="16"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="16"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="16"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="16"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="16"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="16"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="16"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="16"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="16"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="16"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="16"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="16"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="16"/>
+      <c r="B268" s="16"/>
+      <c r="C268" s="16"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="16"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="16"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="16"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="16"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="16"/>
+      <c r="B273" s="16"/>
+      <c r="C273" s="16"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
+      <c r="C274" s="16"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="16"/>
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="16"/>
+      <c r="B276" s="16"/>
+      <c r="C276" s="16"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="16"/>
+      <c r="B277" s="16"/>
+      <c r="C277" s="16"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="16"/>
+      <c r="B279" s="16"/>
+      <c r="C279" s="16"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="16"/>
+      <c r="B280" s="16"/>
+      <c r="C280" s="16"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="16"/>
+      <c r="B281" s="16"/>
+      <c r="C281" s="16"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="16"/>
+      <c r="B282" s="16"/>
+      <c r="C282" s="16"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="16"/>
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="16"/>
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="16"/>
+      <c r="B285" s="16"/>
+      <c r="C285" s="16"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="16"/>
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="16"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="16"/>
+      <c r="B289" s="16"/>
+      <c r="C289" s="16"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="16"/>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A42:C42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF750585-B558-4ADB-8F8C-300D98D22696}">
+  <dimension ref="A2:F129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,14 +3097,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -791,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -799,88 +3120,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,22 +3212,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
@@ -914,85 +3237,103 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +3341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1008,53 +3349,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -1065,19 +3409,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1085,115 +3429,140 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="F73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
       <c r="B74" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C75" s="1"/>
       <c r="F75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C77" s="1"/>
       <c r="F77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
       <c r="B79" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C79" s="1"/>
       <c r="F79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -1204,36 +3573,255 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
+    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B90" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="10"/>
+      <c r="C109" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B110" s="10"/>
+      <c r="C110" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B117" s="10"/>
+      <c r="C117" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B118" s="10"/>
+      <c r="C118" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C123" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C124" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C125" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C126" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C127" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A71:C71"/>
+  <mergeCells count="24">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A53:C53"/>
@@ -1244,13 +3832,27 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A105:C105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF07290-D813-4AE3-B209-F2CE025EB4A0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1258,24 +3860,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1286,135 +3888,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="C11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27D6BF-0EA5-441B-BBDF-89336BEB1FDE}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1425,6 +3940,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27D6BF-0EA5-441B-BBDF-89336BEB1FDE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9865B056-DE43-0A4A-9077-F5699E360F0F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1432,15 +4034,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D163ED68-1EAC-B54C-B068-C8917BCEA4D6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1467,15 +4069,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
